--- a/src/main/resources/file/1-32_updated.xlsx
+++ b/src/main/resources/file/1-32_updated.xlsx
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="5">
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 66</t>
+  </si>
+  <si>
+    <t>test 33</t>
+  </si>
+  <si>
+    <t>test 98</t>
+  </si>
   <si>
     <t/>
   </si>
@@ -534,10 +546,10 @@
       <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -550,17 +562,19 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="W1" t="n" s="0">
+        <v>98.0</v>
+      </c>
       <c r="X1" s="1"/>
       <c r="Y1" t="s" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -579,17 +593,17 @@
       <c r="W2" s="1"/>
       <c r="X2" s="7"/>
       <c r="Y2" t="s" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -602,17 +616,17 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="0"/>
       <c r="X3" s="9"/>
       <c r="Y3" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -631,17 +645,17 @@
       <c r="W4" s="1"/>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="0"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -654,17 +668,17 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="0"/>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
@@ -684,17 +698,17 @@
       <c r="W6" s="1"/>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="0"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -708,17 +722,17 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="1"/>
       <c r="Y7" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" t="s" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -738,17 +752,17 @@
       <c r="W8" s="1"/>
       <c r="X8" s="7"/>
       <c r="Y8" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="0"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -762,17 +776,17 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" t="s" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -792,17 +806,17 @@
       <c r="W10" s="1"/>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="0"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -817,17 +831,17 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="9"/>
       <c r="Y11" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
@@ -847,17 +861,17 @@
       <c r="W12" s="1"/>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="0"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -871,17 +885,17 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="1"/>
       <c r="Y13" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
@@ -901,17 +915,17 @@
       <c r="W14" s="1"/>
       <c r="X14" s="7"/>
       <c r="Y14" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="0"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -925,17 +939,17 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="9"/>
       <c r="Y15" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" t="s" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -955,17 +969,17 @@
       <c r="W16" s="1"/>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="0"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -979,17 +993,17 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1"/>
@@ -1009,17 +1023,17 @@
       <c r="W18" s="1"/>
       <c r="X18" s="7"/>
       <c r="Y18" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="0"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1033,17 +1047,17 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="1"/>
       <c r="Y19" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
@@ -1063,17 +1077,17 @@
       <c r="W20" s="1"/>
       <c r="X20" s="7"/>
       <c r="Y20" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="0"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1087,17 +1101,17 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="0"/>
       <c r="X21" s="10"/>
       <c r="Y21" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
@@ -1117,17 +1131,17 @@
       <c r="W22" s="1"/>
       <c r="X22" s="7"/>
       <c r="Y22" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="0"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1141,17 +1155,17 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="W23" s="0"/>
       <c r="X23" s="9"/>
       <c r="Y23" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1"/>
@@ -1171,17 +1185,17 @@
       <c r="W24" s="1"/>
       <c r="X24" s="7"/>
       <c r="Y24" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="0"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1195,17 +1209,17 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1"/>
@@ -1227,17 +1241,17 @@
       <c r="W26" s="1"/>
       <c r="X26" s="7"/>
       <c r="Y26" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="0"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1253,17 +1267,17 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="1"/>
       <c r="Y27" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" t="s" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1283,17 +1297,17 @@
       <c r="W28" s="1"/>
       <c r="X28" s="7"/>
       <c r="Y28" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" t="s" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="0"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1307,17 +1321,17 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" t="s" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1338,17 +1352,17 @@
       <c r="W30" s="1"/>
       <c r="X30" s="7"/>
       <c r="Y30" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="s" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="0"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1362,17 +1376,17 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="1"/>
       <c r="Y31" t="s" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" t="s" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1"/>
@@ -1392,7 +1406,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="7"/>
       <c r="Y32" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="15"/>
